--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precede2024\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F35B3E-FE38-412E-80A4-68FE6F1F6279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4222D-4697-4F81-BB26-A71A8F3F71C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="435" windowWidth="21000" windowHeight="10350" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -405,34 +402,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +772,7 @@
   <dimension ref="B1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -787,299 +787,300 @@
     <col min="12" max="12" width="5.25" customWidth="1"/>
     <col min="13" max="15" width="5.625" customWidth="1"/>
     <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="20" width="6.625" customWidth="1"/>
+    <col min="17" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="25" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>45940</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45940</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>45943</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>45943</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="15"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>45950</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14">
+      <c r="D9" s="3"/>
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="9" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="10" t="s">
@@ -1088,53 +1089,48 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>45940</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="B2:B4"/>
@@ -1143,6 +1139,11 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E4222D-4697-4F81-BB26-A71A8F3F71C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB4C593-C041-489C-B74E-BECF227D010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -124,13 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム画面（H＆L）</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
@@ -205,16 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各ボタンの操作</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ名の書き出し</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -248,9 +231,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイアウト・画面遷移</t>
-    <rPh sb="6" eb="10">
-      <t>ガメンセンイ</t>
+    <t>第二週</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五週</t>
+    <rPh sb="0" eb="3">
+      <t>ダイゴシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面「H＆L」</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +292,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +342,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,18 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -426,14 +461,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,209 +849,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38D25E2-E1DF-47EC-A7E8-85EC6A1C1448}">
-  <dimension ref="B1:Y10"/>
+  <dimension ref="B1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="9" width="3.625" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.125" customWidth="1"/>
     <col min="12" max="12" width="5.25" customWidth="1"/>
     <col min="13" max="15" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
     <col min="17" max="19" width="6.625" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="0.5" customWidth="1"/>
+    <col min="27" max="61" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5" t="s">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="U4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="Y4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="AD4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="AE4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
+      <c r="AI4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45940</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>45940</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8">
-        <v>0.9</v>
+      <c r="D6" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -986,33 +1208,54 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D7" s="2">
         <v>45943</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8">
-        <v>0.9</v>
+      <c r="E7" s="5">
+        <v>1</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1022,33 +1265,54 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>45943</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8">
-        <v>0.5</v>
+      <c r="D8" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="P8" s="10"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1058,92 +1322,538 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>45950</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8">
-        <v>0</v>
+        <v>45943</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>22</v>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B10" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45940</v>
+        <v>45950</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="8">
-        <v>0.9</v>
+      <c r="E10" s="5">
+        <v>0.5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="P10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="2:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45964</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45971</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="J6:K6"/>
+  <mergeCells count="21">
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB4C593-C041-489C-B74E-BECF227D010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A0230A-CB6A-4C01-AEB5-58CAB987209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +269,53 @@
     <t>開発</t>
     <rPh sb="0" eb="2">
       <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面「H＆L」モックの表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面　モックの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面「H＆L」　処理の実装作業</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ジッソウサギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表以降</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ハッピョウイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -430,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,61 +506,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38D25E2-E1DF-47EC-A7E8-85EC6A1C1448}">
   <dimension ref="B1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -876,256 +942,256 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="20" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="21" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21" t="s">
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21" t="s">
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="22" t="s">
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AD4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AG4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="22" t="s">
+      <c r="AH4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="22" t="s">
+      <c r="AI4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="22" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AK4" s="22" t="s">
+      <c r="AK4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="22" t="s">
+      <c r="AM4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="22" t="s">
+      <c r="AN4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AO4" s="22" t="s">
+      <c r="AO4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="22" t="s">
+      <c r="AP4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="22" t="s">
+      <c r="AQ4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="22" t="s">
+      <c r="AR4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" s="22" t="s">
+      <c r="AS4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="22" t="s">
+      <c r="AT4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1"/>
@@ -1151,7 +1217,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="13"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -1174,7 +1240,7 @@
       <c r="AT5" s="6"/>
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
@@ -1208,7 +1274,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="18"/>
+      <c r="Z6" s="16"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -1231,7 +1297,7 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="2">
@@ -1247,10 +1313,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1265,7 +1331,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="18"/>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -1288,7 +1354,7 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2">
@@ -1306,13 +1372,13 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1322,7 +1388,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="18"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -1345,7 +1411,7 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
@@ -1363,13 +1429,13 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1379,7 +1445,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="18"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -1402,7 +1468,7 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
@@ -1425,18 +1491,18 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="18"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -1459,7 +1525,7 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -1493,7 +1559,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="18"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -1516,59 +1582,59 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="2:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
     </row>
     <row r="13" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1589,7 +1655,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="18"/>
+      <c r="Z13" s="16"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -1612,7 +1678,7 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2">
@@ -1644,7 +1710,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="18"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
@@ -1667,7 +1733,7 @@
       <c r="AT14" s="3"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2">
@@ -1692,14 +1758,14 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
@@ -1722,7 +1788,7 @@
       <c r="AT15" s="3"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2">
@@ -1747,19 +1813,19 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="7" t="s">
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="9"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="28"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -1777,7 +1843,7 @@
       <c r="AT16" s="3"/>
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2">
@@ -1807,19 +1873,19 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="18"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="7" t="s">
+      <c r="AF17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="9"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="28"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -1833,6 +1899,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -1845,11 +1916,6 @@
     <mergeCell ref="AK3:AO3"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
@@ -1858,4 +1924,1129 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE874B-AC51-4F5B-94B4-CE214572FE59}">
+  <dimension ref="B1:AU19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.125" customWidth="1"/>
+    <col min="12" max="12" width="5.25" customWidth="1"/>
+    <col min="13" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="0.5" customWidth="1"/>
+    <col min="27" max="61" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+    </row>
+    <row r="3" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="17">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>17</v>
+      </c>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+    </row>
+    <row r="12" spans="2:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45964</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45971</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45964</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="33"/>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45971</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A0230A-CB6A-4C01-AEB5-58CAB987209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1335D-BF0F-4050-9BE1-6FD62C8ADAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +317,168 @@
     </rPh>
     <rPh sb="2" eb="6">
       <t>ハッピョウイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面　処理の実装作業</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジッソウサギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表資料作成</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>資料作成、発表練習</t>
+    <rPh sb="0" eb="4">
+      <t>シリョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール・新規登録　モックの表示</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール・新規登録　処理の実装</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績画面　モックの表示</t>
+    <rPh sb="0" eb="4">
+      <t>ジッセキガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績画面　処理の実装</t>
+    <rPh sb="0" eb="4">
+      <t>ジッセキガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計・画面遷移図</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬休み</t>
+    <rPh sb="0" eb="2">
+      <t>フユヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース設計　その２</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +512,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +604,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +759,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,17 +792,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,132 +1165,132 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24" t="s">
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24" t="s">
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,10 +1536,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1372,12 +1595,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1429,12 +1652,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1491,12 +1714,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1758,13 +1981,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="26" t="s">
+      <c r="U15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="33"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -1819,13 +2042,13 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="26" t="s">
+      <c r="AA16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="28"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="33"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -1879,13 +2102,13 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="26" t="s">
+      <c r="AF17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="33"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -1899,11 +2122,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -1920,6 +2138,11 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DE874B-AC51-4F5B-94B4-CE214572FE59}">
   <dimension ref="B1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1955,105 +2178,105 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
       <c r="AF3" s="17">
         <v>10</v>
       </c>
@@ -2083,10 +2306,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2332,10 +2555,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2391,12 +2614,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2448,12 +2671,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2495,7 +2718,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2510,12 +2733,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2777,13 +3000,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="26" t="s">
+      <c r="U15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="33"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2962,14 +3185,14 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="31" t="s">
+      <c r="AO18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="33"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="27"/>
     </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
@@ -3029,22 +3252,1457 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
+  <dimension ref="B1:AS26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="0.5" customWidth="1"/>
+    <col min="8" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="16" width="8.375" customWidth="1"/>
+    <col min="17" max="17" width="4.625" customWidth="1"/>
+    <col min="18" max="18" width="5.75" customWidth="1"/>
+    <col min="19" max="20" width="6.625" customWidth="1"/>
+    <col min="21" max="21" width="5.125" customWidth="1"/>
+    <col min="22" max="22" width="4.75" customWidth="1"/>
+    <col min="23" max="23" width="5.375" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="0.5" customWidth="1"/>
+    <col min="26" max="60" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="17">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17">
+        <v>5</v>
+      </c>
+      <c r="M3" s="17">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17">
+        <v>9</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17">
+        <v>12</v>
+      </c>
+      <c r="R3" s="17">
+        <v>15</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17">
+        <v>19</v>
+      </c>
+      <c r="W3" s="17">
+        <v>22</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="17">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+    </row>
+    <row r="14" spans="2:45" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+    </row>
+    <row r="15" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+    </row>
+    <row r="16" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+    </row>
+    <row r="17" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+    </row>
+    <row r="18" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+    </row>
+    <row r="19" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="34"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45971</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45975</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45978</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45981</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45978</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45981</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45982</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45982</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="X3:X26"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="H2:X2"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M5:M26"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="V19:W19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z2:AS2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1335D-BF0F-4050-9BE1-6FD62C8ADAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50781C-01A7-4792-8645-02D1F8854FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -479,6 +479,92 @@
     <t>データベース設計　その２</t>
     <rPh sb="6" eb="8">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月(祝日)</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン一新</t>
+    <rPh sb="4" eb="6">
+      <t>イッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告書・予稿集・発表資料作成</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨコウシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集中実習のため学校へ</t>
+    <rPh sb="0" eb="4">
+      <t>シュウチュウジッシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告書・予稿集の提出</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨコウシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予稿集、最終提出</t>
+    <rPh sb="0" eb="3">
+      <t>ヨコウシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,22 +599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -545,8 +615,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +698,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -680,13 +771,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,37 +899,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1165,16 +1338,16 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -1224,10 +1397,10 @@
       <c r="AT2" s="30"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
@@ -1287,10 +1460,10 @@
       <c r="AT3" s="29"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2122,6 +2295,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -2138,11 +2316,6 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,16 +2351,16 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -2237,10 +2410,10 @@
       <c r="AT2" s="30"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
@@ -2306,10 +2479,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -3252,22 +3425,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3276,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
-  <dimension ref="B1:AS26"/>
+  <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3304,21 +3477,23 @@
     <col min="23" max="23" width="5.375" customWidth="1"/>
     <col min="24" max="24" width="3.625" customWidth="1"/>
     <col min="25" max="25" width="0.5" customWidth="1"/>
-    <col min="26" max="60" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="8" customWidth="1"/>
+    <col min="28" max="68" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:53" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:53" x14ac:dyDescent="0.4">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="24" t="s">
@@ -3345,34 +3520,44 @@
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-    </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="44"/>
+    </row>
+    <row r="3" spans="2:53" x14ac:dyDescent="0.4">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="17">
         <v>28</v>
       </c>
@@ -3416,33 +3601,61 @@
       <c r="Z3" s="17">
         <v>9</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="17">
+        <v>12</v>
+      </c>
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
+      <c r="AE3" s="17">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>19</v>
+      </c>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
       <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
+      <c r="AJ3" s="17">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>26</v>
+      </c>
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
+      <c r="AO3" s="17">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>2</v>
+      </c>
       <c r="AQ3" s="17"/>
       <c r="AR3" s="17"/>
-      <c r="AS3" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="17">
+        <v>16</v>
+      </c>
+      <c r="BA3" s="17"/>
+    </row>
+    <row r="4" spans="2:53" x14ac:dyDescent="0.4">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
@@ -3500,27 +3713,87 @@
       <c r="Z4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AA4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA4" s="18"/>
+    </row>
+    <row r="5" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
@@ -3559,18 +3832,34 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
+      <c r="AJ5" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
+      <c r="AO5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="6"/>
+    </row>
+    <row r="6" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -3590,7 +3879,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="38"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3613,18 +3902,26 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
+      <c r="AJ6" s="39"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="49"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="3"/>
+    </row>
+    <row r="7" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3941,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="38"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3667,18 +3964,26 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
+      <c r="AJ7" s="39"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="49"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="3"/>
+    </row>
+    <row r="8" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -3698,7 +4003,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="38"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -3721,18 +4026,26 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
+      <c r="AJ8" s="39"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="49"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="3"/>
+    </row>
+    <row r="9" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +4065,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="38"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -3775,18 +4088,26 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
+      <c r="AJ9" s="39"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="49"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="3"/>
+    </row>
+    <row r="10" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +4127,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="38"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -3829,27 +4150,37 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AJ10" s="39"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="49"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="3"/>
+    </row>
+    <row r="11" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>46000</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>46002</v>
+      </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="16"/>
@@ -3858,7 +4189,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="38"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="34" t="s">
         <v>50</v>
       </c>
@@ -3883,27 +4214,37 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
+      <c r="AJ11" s="39"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="49"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="3"/>
+    </row>
+    <row r="12" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>46000</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>46002</v>
+      </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="16"/>
@@ -3912,7 +4253,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="38"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="34" t="s">
         <v>50</v>
       </c>
@@ -3937,27 +4278,37 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
+      <c r="AJ12" s="39"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="49"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="3"/>
+    </row>
+    <row r="13" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="2">
         <v>46003</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>46003</v>
+      </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="16"/>
@@ -3966,7 +4317,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="38"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -3991,18 +4342,26 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
+      <c r="AJ13" s="39"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="49"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
-    </row>
-    <row r="14" spans="2:45" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="3"/>
+    </row>
+    <row r="14" spans="2:53" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -4014,7 +4373,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="13"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="38"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -4037,18 +4396,26 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
+      <c r="AJ14" s="39"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="49"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
-    </row>
-    <row r="15" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="16"/>
+    </row>
+    <row r="15" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
@@ -4062,7 +4429,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="38"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4085,19 +4452,27 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
+      <c r="AJ15" s="39"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="49"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
-    </row>
-    <row r="16" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="35" t="s">
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="3"/>
+    </row>
+    <row r="16" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2">
@@ -4114,7 +4489,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="38"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4139,19 +4514,27 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AJ16" s="39"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="49"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
-    </row>
-    <row r="17" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="35" t="s">
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="3"/>
+    </row>
+    <row r="17" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2">
@@ -4168,7 +4551,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="38"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -4193,19 +4576,27 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
+      <c r="AJ17" s="39"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="49"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
-    </row>
-    <row r="18" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="35" t="s">
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="3"/>
+    </row>
+    <row r="18" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="2">
@@ -4222,7 +4613,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="38"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -4247,19 +4638,27 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
+      <c r="AJ18" s="39"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="49"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
-    </row>
-    <row r="19" spans="2:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="35" t="s">
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="3"/>
+    </row>
+    <row r="19" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2">
@@ -4276,7 +4675,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="38"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -4291,58 +4690,66 @@
       <c r="W19" s="34"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="16"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
+      <c r="Z19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="33"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
+      <c r="AJ19" s="39"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="49"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B20" s="11" t="s">
-        <v>9</v>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="3"/>
+    </row>
+    <row r="20" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="C20" s="2">
-        <v>45954</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45971</v>
-      </c>
+        <v>46007</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="16"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="38"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="3"/>
@@ -4350,31 +4757,41 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
+      <c r="AE20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="39"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="49"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="3"/>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>45957</v>
+        <v>45954</v>
       </c>
       <c r="D21" s="2">
-        <v>45975</v>
+        <v>45971</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -4386,7 +4803,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="38"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4398,7 +4815,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="36"/>
-      <c r="Y21" s="13"/>
+      <c r="Y21" s="16"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -4409,26 +4826,34 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
+      <c r="AJ21" s="39"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="49"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="3"/>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45978</v>
+        <v>45957</v>
       </c>
       <c r="D22" s="2">
-        <v>45981</v>
+        <v>45975</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -4440,7 +4865,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="38"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4452,7 +4877,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="36"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="13"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -4463,20 +4888,28 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
+      <c r="AJ22" s="39"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="49"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="3"/>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>45978</v>
@@ -4494,7 +4927,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="38"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4517,26 +4950,34 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="AJ23" s="39"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="49"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="52"/>
+      <c r="BA23" s="3"/>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="D24" s="2">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -4548,17 +4989,17 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="38"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="3"/>
@@ -4571,40 +5012,46 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
+      <c r="AJ24" s="39"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="49"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="3"/>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D25" s="2">
         <v>45982</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45989</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>29</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="16"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="38"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -4613,8 +5060,8 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="3"/>
@@ -4627,34 +5074,48 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+      <c r="AJ25" s="39"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="49"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="3"/>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.4">
       <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45982</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="38"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -4677,32 +5138,105 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
+      <c r="AJ26" s="39"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="49"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="3"/>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="X3:X26"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="H2:X2"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M5:M26"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="V19:W19"/>
+  <mergeCells count="20">
+    <mergeCell ref="AP5:AP27"/>
+    <mergeCell ref="AZ5:AZ27"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="Z19:AE19"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="AJ5:AJ27"/>
+    <mergeCell ref="AO5:AO27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="Z2:AS2"/>
+    <mergeCell ref="Z2:AO2"/>
+    <mergeCell ref="X3:X27"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="H2:X2"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M5:M27"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="V19:W19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50781C-01A7-4792-8645-02D1F8854FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED36171-82ED-4E70-A290-4B7195C34D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +902,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,8 +926,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -929,53 +977,8 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,132 +1341,132 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29" t="s">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29" t="s">
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29" t="s">
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1709,10 +1712,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1768,12 +1771,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1825,12 +1828,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1887,12 +1890,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2154,13 +2157,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2215,13 +2218,13 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="31" t="s">
+      <c r="AA16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="33"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="35"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -2275,13 +2278,13 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="31" t="s">
+      <c r="AF17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="33"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="35"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -2295,11 +2298,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -2316,6 +2314,11 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,105 +2354,105 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29" t="s">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
       <c r="AF3" s="17">
         <v>10</v>
       </c>
@@ -2479,10 +2482,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2728,10 +2731,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2787,12 +2790,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2844,12 +2847,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2906,12 +2909,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3173,13 +3176,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3425,22 +3428,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3451,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV20" sqref="AV20"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3484,80 +3487,80 @@
   <sheetData>
     <row r="1" spans="2:53" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="45" t="s">
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="29"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="17">
         <v>28</v>
       </c>
@@ -3594,7 +3597,7 @@
       <c r="W3" s="17">
         <v>22</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="52" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="21"/>
@@ -3652,10 +3655,10 @@
       <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="W4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="36"/>
+      <c r="X4" s="52"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="18" t="s">
         <v>11</v>
@@ -3807,7 +3810,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="53" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="6"/>
@@ -3820,7 +3823,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="36"/>
+      <c r="X5" s="52"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -3832,17 +3835,17 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="38" t="s">
+      <c r="AJ5" s="46" t="s">
         <v>57</v>
       </c>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="41" t="s">
+      <c r="AO5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AP5" s="48" t="s">
+      <c r="AP5" s="37" t="s">
         <v>59</v>
       </c>
       <c r="AQ5" s="6"/>
@@ -3854,7 +3857,7 @@
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="51" t="s">
+      <c r="AZ5" s="40" t="s">
         <v>60</v>
       </c>
       <c r="BA5" s="6"/>
@@ -3879,7 +3882,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3890,7 +3893,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="36"/>
+      <c r="X6" s="52"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -3902,13 +3905,13 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="39"/>
+      <c r="AJ6" s="47"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="49"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="38"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
@@ -3918,7 +3921,7 @@
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="52"/>
+      <c r="AZ6" s="41"/>
       <c r="BA6" s="3"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.4">
@@ -3941,7 +3944,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3952,7 +3955,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="36"/>
+      <c r="X7" s="52"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -3964,13 +3967,13 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="39"/>
+      <c r="AJ7" s="47"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="49"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="38"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -3980,7 +3983,7 @@
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="52"/>
+      <c r="AZ7" s="41"/>
       <c r="BA7" s="3"/>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.4">
@@ -4003,7 +4006,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -4014,7 +4017,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="36"/>
+      <c r="X8" s="52"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -4026,13 +4029,13 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="39"/>
+      <c r="AJ8" s="47"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="49"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="38"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -4042,7 +4045,7 @@
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="52"/>
+      <c r="AZ8" s="41"/>
       <c r="BA8" s="3"/>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.4">
@@ -4065,7 +4068,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -4076,7 +4079,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="36"/>
+      <c r="X9" s="52"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -4088,13 +4091,13 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="39"/>
+      <c r="AJ9" s="47"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="49"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="38"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -4104,7 +4107,7 @@
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="52"/>
+      <c r="AZ9" s="41"/>
       <c r="BA9" s="3"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.4">
@@ -4127,7 +4130,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -4138,7 +4141,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="36"/>
+      <c r="X10" s="52"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -4150,13 +4153,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="39"/>
+      <c r="AJ10" s="47"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="49"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="38"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -4166,7 +4169,7 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="52"/>
+      <c r="AZ10" s="41"/>
       <c r="BA10" s="3"/>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.4">
@@ -4189,12 +4192,12 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="34" t="s">
+      <c r="M11" s="53"/>
+      <c r="N11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -4202,7 +4205,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="36"/>
+      <c r="X11" s="52"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -4214,13 +4217,13 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="39"/>
+      <c r="AJ11" s="47"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="49"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="38"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
@@ -4230,7 +4233,7 @@
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="52"/>
+      <c r="AZ11" s="41"/>
       <c r="BA11" s="3"/>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.4">
@@ -4253,12 +4256,12 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -4266,7 +4269,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="36"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -4278,13 +4281,13 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="39"/>
+      <c r="AJ12" s="47"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="49"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="38"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
@@ -4294,7 +4297,7 @@
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="52"/>
+      <c r="AZ12" s="41"/>
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.4">
@@ -4317,7 +4320,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="37"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -4330,7 +4333,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="36"/>
+      <c r="X13" s="52"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -4342,13 +4345,13 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="39"/>
+      <c r="AJ13" s="47"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="49"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="38"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
@@ -4358,7 +4361,7 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="52"/>
+      <c r="AZ13" s="41"/>
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4373,7 +4376,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="13"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="53"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -4384,7 +4387,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="36"/>
+      <c r="X14" s="52"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -4396,13 +4399,13 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="39"/>
+      <c r="AJ14" s="47"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="49"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="38"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
@@ -4412,7 +4415,7 @@
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
-      <c r="AZ14" s="52"/>
+      <c r="AZ14" s="41"/>
       <c r="BA14" s="16"/>
     </row>
     <row r="15" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4429,7 +4432,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="53"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4440,7 +4443,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="36"/>
+      <c r="X15" s="52"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -4452,13 +4455,13 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="39"/>
+      <c r="AJ15" s="47"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="49"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="38"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
@@ -4468,7 +4471,7 @@
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
-      <c r="AZ15" s="52"/>
+      <c r="AZ15" s="41"/>
       <c r="BA15" s="3"/>
     </row>
     <row r="16" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4476,11 +4479,13 @@
         <v>46</v>
       </c>
       <c r="C16" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>46003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46003</v>
+      </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="16"/>
@@ -4489,20 +4494,20 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="37"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="36"/>
+      <c r="X16" s="52"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -4514,13 +4519,13 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="39"/>
+      <c r="AJ16" s="47"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="49"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="38"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4530,7 +4535,7 @@
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
-      <c r="AZ16" s="52"/>
+      <c r="AZ16" s="41"/>
       <c r="BA16" s="3"/>
     </row>
     <row r="17" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4538,11 +4543,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>46003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>46003</v>
+      </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="16"/>
@@ -4551,20 +4558,20 @@
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="37"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="34" t="s">
+      <c r="Q17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="36"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -4576,13 +4583,13 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="39"/>
+      <c r="AJ17" s="47"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="49"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="38"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -4592,15 +4599,15 @@
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
-      <c r="AZ17" s="52"/>
+      <c r="AZ17" s="41"/>
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2">
-        <v>46010</v>
+        <v>46007</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
@@ -4613,20 +4620,20 @@
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="37"/>
+      <c r="M18" s="53"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="4" t="s">
+      <c r="R18" s="33" t="s">
         <v>29</v>
       </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="36"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4638,13 +4645,13 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="39"/>
+      <c r="AJ18" s="47"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="49"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="38"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
@@ -4654,12 +4661,12 @@
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
-      <c r="AZ18" s="52"/>
+      <c r="AZ18" s="41"/>
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>46010</v>
@@ -4675,40 +4682,38 @@
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="37"/>
+      <c r="M19" s="53"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="34" t="s">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W19" s="34"/>
-      <c r="X19" s="36"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="52"/>
       <c r="Y19" s="16"/>
-      <c r="Z19" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="33"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="39"/>
+      <c r="AJ19" s="47"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="49"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="38"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -4718,15 +4723,15 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
-      <c r="AZ19" s="52"/>
+      <c r="AZ19" s="41"/>
       <c r="BA19" s="3"/>
     </row>
     <row r="20" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>46007</v>
+        <v>46010</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
@@ -4739,7 +4744,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="37"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -4748,29 +4753,31 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="36"/>
+      <c r="V20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="36"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="16"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="31" t="s">
+      <c r="Z20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="39"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="47"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="49"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="38"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -4780,7 +4787,7 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
-      <c r="AZ20" s="52"/>
+      <c r="AZ20" s="41"/>
       <c r="BA20" s="3"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.4">
@@ -4803,7 +4810,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="37"/>
+      <c r="M21" s="53"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4814,7 +4821,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="36"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -4826,13 +4833,13 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="39"/>
+      <c r="AJ21" s="47"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="49"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="38"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -4842,7 +4849,7 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="52"/>
+      <c r="AZ21" s="41"/>
       <c r="BA21" s="3"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.4">
@@ -4865,7 +4872,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="37"/>
+      <c r="M22" s="53"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4876,7 +4883,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="36"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -4888,13 +4895,13 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="39"/>
+      <c r="AJ22" s="47"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="49"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="38"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -4904,7 +4911,7 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="52"/>
+      <c r="AZ22" s="41"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.4">
@@ -4927,7 +4934,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="37"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4938,7 +4945,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="36"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -4950,13 +4957,13 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="39"/>
+      <c r="AJ23" s="47"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="49"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="38"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -4966,7 +4973,7 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="52"/>
+      <c r="AZ23" s="41"/>
       <c r="BA23" s="3"/>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.4">
@@ -4989,7 +4996,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="37"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -5000,7 +5007,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="36"/>
+      <c r="X24" s="52"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -5012,13 +5019,13 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="39"/>
+      <c r="AJ24" s="47"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="49"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="38"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -5028,7 +5035,7 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="52"/>
+      <c r="AZ24" s="41"/>
       <c r="BA24" s="3"/>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.4">
@@ -5051,7 +5058,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="37"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -5062,7 +5069,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="36"/>
+      <c r="X25" s="52"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -5074,13 +5081,13 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="39"/>
+      <c r="AJ25" s="47"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="49"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="38"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -5090,7 +5097,7 @@
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="52"/>
+      <c r="AZ25" s="41"/>
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.4">
@@ -5115,7 +5122,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="37"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -5126,7 +5133,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="36"/>
+      <c r="X26" s="52"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -5138,13 +5145,13 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="39"/>
+      <c r="AJ26" s="47"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="49"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="38"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -5154,7 +5161,7 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-      <c r="AZ26" s="52"/>
+      <c r="AZ26" s="41"/>
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.4">
@@ -5166,14 +5173,14 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="37"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -5184,7 +5191,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="36"/>
+      <c r="X27" s="52"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -5196,13 +5203,13 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="40"/>
+      <c r="AJ27" s="48"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="50"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="39"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -5212,31 +5219,30 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-      <c r="AZ27" s="53"/>
+      <c r="AZ27" s="42"/>
       <c r="BA27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AP5:AP27"/>
-    <mergeCell ref="AZ5:AZ27"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="Z19:AE19"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="AJ5:AJ27"/>
-    <mergeCell ref="AO5:AO27"/>
+  <mergeCells count="19">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="Z2:AO2"/>
     <mergeCell ref="X3:X27"/>
-    <mergeCell ref="R17:U17"/>
     <mergeCell ref="H2:X2"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="M5:M27"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="AP5:AP27"/>
+    <mergeCell ref="AZ5:AZ27"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AJ5:AJ27"/>
+    <mergeCell ref="AO5:AO27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED36171-82ED-4E70-A290-4B7195C34D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BB803-0AAB-4C89-9C05-BD83ED75F5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,26 +905,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -944,15 +959,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -970,15 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,132 +1338,132 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31" t="s">
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1712,10 +1709,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1771,12 +1768,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1828,12 +1825,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1890,12 +1887,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2157,13 +2154,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="33" t="s">
+      <c r="U15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2218,13 +2215,13 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="35"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="34"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -2278,13 +2275,13 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="33" t="s">
+      <c r="AF17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="35"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="34"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -2298,6 +2295,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -2314,11 +2316,6 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,105 +2351,105 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
       <c r="AF3" s="17">
         <v>10</v>
       </c>
@@ -2482,10 +2479,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2731,10 +2728,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2790,12 +2787,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2847,12 +2844,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2909,12 +2906,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3176,13 +3173,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="33" t="s">
+      <c r="U15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3428,22 +3425,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3487,80 +3484,80 @@
   <sheetData>
     <row r="1" spans="2:53" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="43" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="45"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="39"/>
       <c r="BA2" s="29"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="17">
         <v>28</v>
       </c>
@@ -3597,7 +3594,7 @@
       <c r="W3" s="17">
         <v>22</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="40" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="21"/>
@@ -3655,10 +3652,10 @@
       <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
@@ -3711,7 +3708,7 @@
       <c r="W4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="40"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="18" t="s">
         <v>11</v>
@@ -3810,7 +3807,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="41" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="6"/>
@@ -3823,7 +3820,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="52"/>
+      <c r="X5" s="40"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -3835,17 +3832,17 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="46" t="s">
+      <c r="AJ5" s="48" t="s">
         <v>57</v>
       </c>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AP5" s="37" t="s">
+      <c r="AP5" s="42" t="s">
         <v>59</v>
       </c>
       <c r="AQ5" s="6"/>
@@ -3857,7 +3854,7 @@
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="40" t="s">
+      <c r="AZ5" s="45" t="s">
         <v>60</v>
       </c>
       <c r="BA5" s="6"/>
@@ -3882,7 +3879,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3893,7 +3890,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="52"/>
+      <c r="X6" s="40"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -3905,13 +3902,13 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="47"/>
+      <c r="AJ6" s="49"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="38"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="43"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
@@ -3921,7 +3918,7 @@
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="41"/>
+      <c r="AZ6" s="46"/>
       <c r="BA6" s="3"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.4">
@@ -3944,7 +3941,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3955,7 +3952,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="52"/>
+      <c r="X7" s="40"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -3967,13 +3964,13 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="47"/>
+      <c r="AJ7" s="49"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="38"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="43"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -3983,7 +3980,7 @@
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="41"/>
+      <c r="AZ7" s="46"/>
       <c r="BA7" s="3"/>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.4">
@@ -4006,7 +4003,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -4017,7 +4014,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="52"/>
+      <c r="X8" s="40"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -4029,13 +4026,13 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="47"/>
+      <c r="AJ8" s="49"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="38"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="43"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -4045,7 +4042,7 @@
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="41"/>
+      <c r="AZ8" s="46"/>
       <c r="BA8" s="3"/>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.4">
@@ -4068,7 +4065,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -4079,7 +4076,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="52"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -4091,13 +4088,13 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="47"/>
+      <c r="AJ9" s="49"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="38"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="43"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -4107,7 +4104,7 @@
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="41"/>
+      <c r="AZ9" s="46"/>
       <c r="BA9" s="3"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.4">
@@ -4130,7 +4127,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -4141,7 +4138,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="52"/>
+      <c r="X10" s="40"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -4153,13 +4150,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="47"/>
+      <c r="AJ10" s="49"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="38"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="43"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -4169,7 +4166,7 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="41"/>
+      <c r="AZ10" s="46"/>
       <c r="BA10" s="3"/>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.4">
@@ -4192,12 +4189,12 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="36" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -4205,7 +4202,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="52"/>
+      <c r="X11" s="40"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -4217,13 +4214,13 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="47"/>
+      <c r="AJ11" s="49"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="38"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="43"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
@@ -4233,7 +4230,7 @@
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="41"/>
+      <c r="AZ11" s="46"/>
       <c r="BA11" s="3"/>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.4">
@@ -4256,12 +4253,12 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="36" t="s">
+      <c r="M12" s="41"/>
+      <c r="N12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -4269,7 +4266,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="52"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -4281,13 +4278,13 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="47"/>
+      <c r="AJ12" s="49"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="38"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="43"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
@@ -4297,7 +4294,7 @@
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="41"/>
+      <c r="AZ12" s="46"/>
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.4">
@@ -4320,7 +4317,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="53"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -4333,7 +4330,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="52"/>
+      <c r="X13" s="40"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -4345,13 +4342,13 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="47"/>
+      <c r="AJ13" s="49"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="38"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="43"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
@@ -4361,7 +4358,7 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="41"/>
+      <c r="AZ13" s="46"/>
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4376,7 +4373,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="13"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="53"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -4387,7 +4384,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="52"/>
+      <c r="X14" s="40"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -4399,13 +4396,13 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="47"/>
+      <c r="AJ14" s="49"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="38"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="43"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
@@ -4415,7 +4412,7 @@
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
-      <c r="AZ14" s="41"/>
+      <c r="AZ14" s="46"/>
       <c r="BA14" s="16"/>
     </row>
     <row r="15" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4432,7 +4429,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="53"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4443,7 +4440,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="52"/>
+      <c r="X15" s="40"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -4455,13 +4452,13 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="47"/>
+      <c r="AJ15" s="49"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="38"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="43"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
@@ -4471,7 +4468,7 @@
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
-      <c r="AZ15" s="41"/>
+      <c r="AZ15" s="46"/>
       <c r="BA15" s="3"/>
     </row>
     <row r="16" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4494,7 +4491,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="53"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4507,7 +4504,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="52"/>
+      <c r="X16" s="40"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -4519,13 +4516,13 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="47"/>
+      <c r="AJ16" s="49"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="38"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="43"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4535,7 +4532,7 @@
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
-      <c r="AZ16" s="41"/>
+      <c r="AZ16" s="46"/>
       <c r="BA16" s="3"/>
     </row>
     <row r="17" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,20 +4555,20 @@
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="52"/>
+      <c r="X17" s="40"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -4583,13 +4580,13 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="47"/>
+      <c r="AJ17" s="49"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="38"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="43"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -4599,7 +4596,7 @@
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
-      <c r="AZ17" s="41"/>
+      <c r="AZ17" s="46"/>
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4611,7 +4608,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="16"/>
@@ -4620,20 +4617,20 @@
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="53"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="34"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="52"/>
+      <c r="X18" s="40"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4645,13 +4642,13 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="47"/>
+      <c r="AJ18" s="49"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="38"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="43"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
@@ -4661,7 +4658,7 @@
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
-      <c r="AZ18" s="41"/>
+      <c r="AZ18" s="46"/>
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4682,7 +4679,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="53"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -4695,7 +4692,7 @@
         <v>29</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="52"/>
+      <c r="X19" s="40"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -4707,13 +4704,13 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="47"/>
+      <c r="AJ19" s="49"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="38"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="43"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -4723,7 +4720,7 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
-      <c r="AZ19" s="41"/>
+      <c r="AZ19" s="46"/>
       <c r="BA19" s="3"/>
     </row>
     <row r="20" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4744,7 +4741,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="53"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -4753,31 +4750,31 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="36" t="s">
+      <c r="V20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="36"/>
-      <c r="X20" s="52"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="40"/>
       <c r="Y20" s="16"/>
-      <c r="Z20" s="33" t="s">
+      <c r="Z20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="35"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="34"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="47"/>
+      <c r="AJ20" s="49"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="38"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="43"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -4787,7 +4784,7 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="3"/>
-      <c r="AZ20" s="41"/>
+      <c r="AZ20" s="46"/>
       <c r="BA20" s="3"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.4">
@@ -4810,7 +4807,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="53"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4821,7 +4818,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="52"/>
+      <c r="X21" s="40"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -4833,13 +4830,13 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="47"/>
+      <c r="AJ21" s="49"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="38"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="43"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -4849,7 +4846,7 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="41"/>
+      <c r="AZ21" s="46"/>
       <c r="BA21" s="3"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.4">
@@ -4872,7 +4869,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="53"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4883,7 +4880,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="52"/>
+      <c r="X22" s="40"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -4895,13 +4892,13 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="47"/>
+      <c r="AJ22" s="49"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="38"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="43"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -4911,7 +4908,7 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="41"/>
+      <c r="AZ22" s="46"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.4">
@@ -4934,7 +4931,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="53"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4945,7 +4942,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="52"/>
+      <c r="X23" s="40"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -4957,13 +4954,13 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="47"/>
+      <c r="AJ23" s="49"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="38"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="43"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -4973,7 +4970,7 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="41"/>
+      <c r="AZ23" s="46"/>
       <c r="BA23" s="3"/>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.4">
@@ -4996,7 +4993,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="53"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -5007,7 +5004,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="52"/>
+      <c r="X24" s="40"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -5019,13 +5016,13 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="47"/>
+      <c r="AJ24" s="49"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="38"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="43"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -5035,7 +5032,7 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="41"/>
+      <c r="AZ24" s="46"/>
       <c r="BA24" s="3"/>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.4">
@@ -5058,7 +5055,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="53"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -5069,7 +5066,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="52"/>
+      <c r="X25" s="40"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -5081,13 +5078,13 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="47"/>
+      <c r="AJ25" s="49"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="38"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="43"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -5097,7 +5094,7 @@
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="41"/>
+      <c r="AZ25" s="46"/>
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.4">
@@ -5122,7 +5119,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="53"/>
+      <c r="M26" s="41"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -5133,7 +5130,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="52"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -5145,13 +5142,13 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="47"/>
+      <c r="AJ26" s="49"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="38"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="43"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -5161,7 +5158,7 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-      <c r="AZ26" s="41"/>
+      <c r="AZ26" s="46"/>
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.4">
@@ -5173,14 +5170,14 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="53"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -5191,7 +5188,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="52"/>
+      <c r="X27" s="40"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -5203,13 +5200,13 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="48"/>
+      <c r="AJ27" s="50"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="39"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="44"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -5219,11 +5216,17 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-      <c r="AZ27" s="42"/>
+      <c r="AZ27" s="47"/>
       <c r="BA27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AP5:AP27"/>
+    <mergeCell ref="AZ5:AZ27"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AJ5:AJ27"/>
+    <mergeCell ref="AO5:AO27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -5237,12 +5240,6 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="R18:U18"/>
-    <mergeCell ref="AP5:AP27"/>
-    <mergeCell ref="AZ5:AZ27"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="AJ5:AJ27"/>
-    <mergeCell ref="AO5:AO27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BB803-0AAB-4C89-9C05-BD83ED75F5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB28CB-4C69-4C4B-9598-964D3DB2364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -565,6 +565,16 @@
     <t>2月</t>
     <rPh sb="1" eb="2">
       <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内発表</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,76 +921,85 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1338,132 +1363,132 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30" t="s">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30" t="s">
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30" t="s">
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1709,10 +1734,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1768,12 +1793,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1825,12 +1850,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1887,12 +1912,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2154,13 +2179,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="32" t="s">
+      <c r="U15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2215,13 +2240,13 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="34"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -2275,13 +2300,13 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="32" t="s">
+      <c r="AF17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="34"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="41"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -2295,11 +2320,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -2316,6 +2336,11 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,105 +2376,105 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
       <c r="AF3" s="17">
         <v>10</v>
       </c>
@@ -2479,10 +2504,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2728,10 +2753,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2787,12 +2812,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2844,12 +2869,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2906,12 +2931,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3173,13 +3198,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="32" t="s">
+      <c r="U15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3425,22 +3450,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3451,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC11" sqref="BC11:BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3484,80 +3509,80 @@
   <sheetData>
     <row r="1" spans="2:53" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="37" t="s">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="39"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="38"/>
       <c r="BA2" s="29"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="17">
         <v>28</v>
       </c>
@@ -3594,7 +3619,7 @@
       <c r="W3" s="17">
         <v>22</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="49" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="21"/>
@@ -3652,10 +3677,10 @@
       <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
@@ -3708,7 +3733,7 @@
       <c r="W4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="40"/>
+      <c r="X4" s="49"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="18" t="s">
         <v>11</v>
@@ -3807,7 +3832,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="52" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="6"/>
@@ -3820,7 +3845,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="40"/>
+      <c r="X5" s="49"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -3832,17 +3857,17 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="48" t="s">
+      <c r="AJ5" s="42" t="s">
         <v>57</v>
       </c>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="51" t="s">
+      <c r="AO5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="AP5" s="42" t="s">
+      <c r="AP5" s="30" t="s">
         <v>59</v>
       </c>
       <c r="AQ5" s="6"/>
@@ -3853,8 +3878,10 @@
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="45" t="s">
+      <c r="AY5" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="BA5" s="6"/>
@@ -3879,7 +3906,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="41"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3890,7 +3917,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="40"/>
+      <c r="X6" s="49"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -3902,13 +3929,13 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="49"/>
+      <c r="AJ6" s="43"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="43"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="31"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
@@ -3917,8 +3944,8 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="46"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="34"/>
       <c r="BA6" s="3"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.4">
@@ -3941,7 +3968,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="41"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3952,7 +3979,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="40"/>
+      <c r="X7" s="49"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -3964,13 +3991,13 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="49"/>
+      <c r="AJ7" s="43"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="43"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="31"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -3979,8 +4006,8 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="46"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="34"/>
       <c r="BA7" s="3"/>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.4">
@@ -4003,7 +4030,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="41"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -4014,7 +4041,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="40"/>
+      <c r="X8" s="49"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -4026,13 +4053,13 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="49"/>
+      <c r="AJ8" s="43"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="43"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="31"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -4041,8 +4068,8 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="46"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="34"/>
       <c r="BA8" s="3"/>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.4">
@@ -4065,7 +4092,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="41"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -4076,7 +4103,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="40"/>
+      <c r="X9" s="49"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -4088,13 +4115,13 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="49"/>
+      <c r="AJ9" s="43"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="43"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="31"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -4103,8 +4130,8 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="46"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="34"/>
       <c r="BA9" s="3"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.4">
@@ -4127,7 +4154,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="41"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -4138,7 +4165,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="40"/>
+      <c r="X10" s="49"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -4150,13 +4177,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="49"/>
+      <c r="AJ10" s="43"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="43"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="31"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -4165,8 +4192,8 @@
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="46"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="34"/>
       <c r="BA10" s="3"/>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.4">
@@ -4189,12 +4216,12 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="52"/>
+      <c r="N11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -4202,7 +4229,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="40"/>
+      <c r="X11" s="49"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -4214,13 +4241,13 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="49"/>
+      <c r="AJ11" s="43"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="43"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="31"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
@@ -4229,8 +4256,8 @@
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="46"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="34"/>
       <c r="BA11" s="3"/>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.4">
@@ -4253,12 +4280,12 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="35" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -4266,7 +4293,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="40"/>
+      <c r="X12" s="49"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -4278,13 +4305,13 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="49"/>
+      <c r="AJ12" s="43"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="43"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="31"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
@@ -4293,8 +4320,8 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="46"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="34"/>
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.4">
@@ -4317,7 +4344,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="41"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -4330,7 +4357,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="40"/>
+      <c r="X13" s="49"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -4342,13 +4369,13 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="49"/>
+      <c r="AJ13" s="43"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="43"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="31"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
@@ -4357,8 +4384,8 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="46"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="34"/>
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4373,7 +4400,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="13"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
+      <c r="M14" s="52"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -4384,7 +4411,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="40"/>
+      <c r="X14" s="49"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -4396,13 +4423,13 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="49"/>
+      <c r="AJ14" s="43"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="43"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="31"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
@@ -4411,8 +4438,8 @@
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="46"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="34"/>
       <c r="BA14" s="16"/>
     </row>
     <row r="15" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4429,7 +4456,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="41"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4440,7 +4467,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="40"/>
+      <c r="X15" s="49"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -4452,13 +4479,13 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="49"/>
+      <c r="AJ15" s="43"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="43"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
@@ -4467,8 +4494,8 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="46"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="34"/>
       <c r="BA15" s="3"/>
     </row>
     <row r="16" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4491,7 +4518,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="41"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4504,7 +4531,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="40"/>
+      <c r="X16" s="49"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -4516,13 +4543,13 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="49"/>
+      <c r="AJ16" s="43"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="43"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="31"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4531,8 +4558,8 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="46"/>
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="34"/>
       <c r="BA16" s="3"/>
     </row>
     <row r="17" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4555,7 +4582,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="41"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -4568,7 +4595,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="40"/>
+      <c r="X17" s="49"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -4580,13 +4607,13 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="49"/>
+      <c r="AJ17" s="43"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="43"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="31"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -4595,8 +4622,8 @@
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="46"/>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="34"/>
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4617,20 +4644,20 @@
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="41"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="41"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="40"/>
+      <c r="X18" s="49"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4642,13 +4669,13 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="49"/>
+      <c r="AJ18" s="43"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="43"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="31"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
@@ -4657,8 +4684,8 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="46"/>
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="34"/>
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4679,7 +4706,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="41"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -4692,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="40"/>
+      <c r="X19" s="49"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -4704,13 +4731,13 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="49"/>
+      <c r="AJ19" s="43"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="43"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="31"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -4719,8 +4746,8 @@
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="46"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="34"/>
       <c r="BA19" s="3"/>
     </row>
     <row r="20" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4741,7 +4768,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="41"/>
+      <c r="M20" s="52"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -4750,31 +4777,31 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="35" t="s">
+      <c r="V20" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="35"/>
-      <c r="X20" s="40"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="49"/>
       <c r="Y20" s="16"/>
-      <c r="Z20" s="32" t="s">
+      <c r="Z20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="34"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="49"/>
+      <c r="AJ20" s="43"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="43"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="31"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -4783,8 +4810,8 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="46"/>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="34"/>
       <c r="BA20" s="3"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.4">
@@ -4807,7 +4834,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="41"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4818,7 +4845,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="40"/>
+      <c r="X21" s="49"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -4830,13 +4857,13 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="49"/>
+      <c r="AJ21" s="43"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="43"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="31"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -4845,8 +4872,8 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="46"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="34"/>
       <c r="BA21" s="3"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.4">
@@ -4869,7 +4896,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="41"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4880,7 +4907,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="40"/>
+      <c r="X22" s="49"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -4892,13 +4919,13 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="49"/>
+      <c r="AJ22" s="43"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="43"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="31"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -4907,8 +4934,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="46"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="34"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.4">
@@ -4931,7 +4958,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="41"/>
+      <c r="M23" s="52"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4942,7 +4969,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="40"/>
+      <c r="X23" s="49"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -4954,13 +4981,13 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="49"/>
+      <c r="AJ23" s="43"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="43"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="31"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -4969,8 +4996,8 @@
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="46"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="34"/>
       <c r="BA23" s="3"/>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.4">
@@ -4993,7 +5020,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="41"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -5004,7 +5031,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="40"/>
+      <c r="X24" s="49"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -5016,13 +5043,13 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="49"/>
+      <c r="AJ24" s="43"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="43"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="31"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -5031,8 +5058,8 @@
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="46"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="34"/>
       <c r="BA24" s="3"/>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.4">
@@ -5055,7 +5082,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="41"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -5066,7 +5093,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="40"/>
+      <c r="X25" s="49"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -5078,13 +5105,13 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="49"/>
+      <c r="AJ25" s="43"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="43"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="31"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -5093,8 +5120,8 @@
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="46"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="34"/>
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.4">
@@ -5119,7 +5146,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="41"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -5130,7 +5157,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="40"/>
+      <c r="X26" s="49"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -5142,13 +5169,13 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="49"/>
+      <c r="AJ26" s="43"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="43"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="31"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -5157,8 +5184,8 @@
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="46"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="34"/>
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.4">
@@ -5170,14 +5197,14 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="41"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -5188,7 +5215,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="40"/>
+      <c r="X27" s="49"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -5200,13 +5227,13 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="50"/>
+      <c r="AJ27" s="44"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="44"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="32"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -5215,18 +5242,12 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="47"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="35"/>
       <c r="BA27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AP5:AP27"/>
-    <mergeCell ref="AZ5:AZ27"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="AJ5:AJ27"/>
-    <mergeCell ref="AO5:AO27"/>
+  <mergeCells count="20">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -5240,6 +5261,13 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="R18:U18"/>
+    <mergeCell ref="AP5:AP27"/>
+    <mergeCell ref="AZ5:AZ27"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AJ5:AJ27"/>
+    <mergeCell ref="AO5:AO27"/>
+    <mergeCell ref="AY5:AY27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合制作実習＿ガントチャート.xlsx
+++ b/総合制作実習＿ガントチャート.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB28CB-4C69-4C4B-9598-964D3DB2364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C0299-7996-4418-AA6C-CD7C0BBAE48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5549A16D-106A-4944-8470-627408559DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="64">
   <si>
     <t>タスクのタイトル</t>
     <phoneticPr fontId="1"/>
@@ -575,6 +576,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合実習発表会</t>
+    <rPh sb="0" eb="4">
+      <t>ソウゴウジッシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハッピョウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +734,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,6 +938,45 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -938,24 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -975,24 +1013,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1002,12 +1022,23 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1363,132 +1394,132 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53" t="s">
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53" t="s">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53" t="s">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1734,10 +1765,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1793,12 +1824,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1850,12 +1881,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1912,12 +1943,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2179,13 +2210,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="39" t="s">
+      <c r="U15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="42"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2240,13 +2271,13 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="39" t="s">
+      <c r="AA16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="42"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -2300,13 +2331,13 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="39" t="s">
+      <c r="AF17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="42"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -2320,6 +2351,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AA2:AT2"/>
     <mergeCell ref="U15:Y15"/>
@@ -2336,11 +2372,6 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,105 +2407,105 @@
   <sheetData>
     <row r="1" spans="2:46" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
       <c r="AF3" s="17">
         <v>10</v>
       </c>
@@ -2504,10 +2535,10 @@
       </c>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2753,10 +2784,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2812,12 +2843,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -2869,12 +2900,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -2931,12 +2962,12 @@
       <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3198,13 +3229,13 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="39" t="s">
+      <c r="U15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="42"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3450,22 +3481,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AA2:AT2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AA2:AT2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CAF30-2E41-47EC-8D2E-B42693BFC59A}">
   <dimension ref="B1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC11" sqref="BC11:BC12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3509,80 +3540,80 @@
   <sheetData>
     <row r="1" spans="2:53" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="36" t="s">
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="38"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="35"/>
       <c r="BA2" s="29"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="17">
         <v>28</v>
       </c>
@@ -3619,7 +3650,7 @@
       <c r="W3" s="17">
         <v>22</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="X3" s="36" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="21"/>
@@ -3677,10 +3708,10 @@
       <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
@@ -3733,7 +3764,7 @@
       <c r="W4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="49"/>
+      <c r="X4" s="36"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="18" t="s">
         <v>11</v>
@@ -3832,7 +3863,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="6"/>
@@ -3845,7 +3876,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="49"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -3857,17 +3888,17 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="42" t="s">
+      <c r="AJ5" s="49" t="s">
         <v>57</v>
       </c>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
-      <c r="AO5" s="45" t="s">
+      <c r="AO5" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="AP5" s="30" t="s">
+      <c r="AP5" s="43" t="s">
         <v>59</v>
       </c>
       <c r="AQ5" s="6"/>
@@ -3878,10 +3909,10 @@
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
-      <c r="AY5" s="54" t="s">
+      <c r="AY5" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AZ5" s="33" t="s">
+      <c r="AZ5" s="46" t="s">
         <v>60</v>
       </c>
       <c r="BA5" s="6"/>
@@ -3906,7 +3937,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -3917,7 +3948,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="49"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -3929,13 +3960,13 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="43"/>
+      <c r="AJ6" s="50"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="31"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="44"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
@@ -3944,8 +3975,8 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="34"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="47"/>
       <c r="BA6" s="3"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.4">
@@ -3968,7 +3999,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="52"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -3979,7 +4010,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="49"/>
+      <c r="X7" s="36"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -3991,13 +4022,13 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="43"/>
+      <c r="AJ7" s="50"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="31"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="44"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -4006,8 +4037,8 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="34"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="47"/>
       <c r="BA7" s="3"/>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.4">
@@ -4030,7 +4061,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="52"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -4041,7 +4072,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="49"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -4053,13 +4084,13 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="43"/>
+      <c r="AJ8" s="50"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="31"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="44"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -4068,8 +4099,8 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="34"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="47"/>
       <c r="BA8" s="3"/>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.4">
@@ -4092,7 +4123,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="52"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -4103,7 +4134,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="49"/>
+      <c r="X9" s="36"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -4115,13 +4146,13 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="43"/>
+      <c r="AJ9" s="50"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="31"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="44"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -4130,8 +4161,8 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="34"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="47"/>
       <c r="BA9" s="3"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.4">
@@ -4154,7 +4185,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -4165,7 +4196,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="49"/>
+      <c r="X10" s="36"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -4177,13 +4208,13 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="43"/>
+      <c r="AJ10" s="50"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="31"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="44"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -4192,8 +4223,8 @@
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="34"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="47"/>
       <c r="BA10" s="3"/>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.4">
@@ -4216,12 +4247,12 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="51" t="s">
+      <c r="M11" s="39"/>
+      <c r="N11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -4229,7 +4260,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="49"/>
+      <c r="X11" s="36"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -4241,13 +4272,13 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="43"/>
+      <c r="AJ11" s="50"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="31"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="44"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
@@ -4256,8 +4287,8 @@
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="34"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="47"/>
       <c r="BA11" s="3"/>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.4">
@@ -4280,12 +4311,12 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -4293,7 +4324,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="49"/>
+      <c r="X12" s="36"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -4305,13 +4336,13 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="43"/>
+      <c r="AJ12" s="50"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="31"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="44"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
@@ -4320,8 +4351,8 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="34"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="47"/>
       <c r="BA12" s="3"/>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.4">
@@ -4344,7 +4375,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="52"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -4357,7 +4388,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="49"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -4369,13 +4400,13 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="43"/>
+      <c r="AJ13" s="50"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="31"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="44"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
@@ -4384,8 +4415,8 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="34"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="47"/>
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4400,7 +4431,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="13"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="52"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -4411,7 +4442,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="49"/>
+      <c r="X14" s="36"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -4423,13 +4454,13 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="43"/>
+      <c r="AJ14" s="50"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="31"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="44"/>
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
@@ -4438,8 +4469,8 @@
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="34"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="47"/>
       <c r="BA14" s="16"/>
     </row>
     <row r="15" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4456,7 +4487,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4467,7 +4498,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="49"/>
+      <c r="X15" s="36"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -4479,13 +4510,13 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="43"/>
+      <c r="AJ15" s="50"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="31"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="44"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
@@ -4494,8 +4525,8 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="34"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="47"/>
       <c r="BA15" s="3"/>
     </row>
     <row r="16" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4518,7 +4549,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="52"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4531,7 +4562,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="49"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -4543,13 +4574,13 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="43"/>
+      <c r="AJ16" s="50"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="31"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="44"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
@@ -4558,8 +4589,8 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="34"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="47"/>
       <c r="BA16" s="3"/>
     </row>
     <row r="17" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4582,7 +4613,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="52"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -4595,7 +4626,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="49"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -4607,13 +4638,13 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="43"/>
+      <c r="AJ17" s="50"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="31"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="44"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
@@ -4622,8 +4653,8 @@
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="34"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="47"/>
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4633,7 +4664,9 @@
       <c r="C18" s="2">
         <v>46007</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>46009</v>
+      </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
@@ -4644,20 +4677,20 @@
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="52"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="49"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4669,13 +4702,13 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="43"/>
+      <c r="AJ18" s="50"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="31"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="44"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
@@ -4684,8 +4717,8 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="34"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="47"/>
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4695,9 +4728,11 @@
       <c r="C19" s="2">
         <v>46010</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>46010</v>
+      </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="16"/>
@@ -4706,7 +4741,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="52"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -4719,7 +4754,7 @@
         <v>29</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="49"/>
+      <c r="X19" s="36"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -4731,13 +4766,13 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="43"/>
+      <c r="AJ19" s="50"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="31"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="44"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -4746,8 +4781,8 @@
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="34"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="47"/>
       <c r="BA19" s="3"/>
     </row>
     <row r="20" spans="2:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4757,9 +4792,11 @@
       <c r="C20" s="2">
         <v>46010</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>45673</v>
+      </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="16"/>
@@ -4768,7 +4805,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="52"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -4777,31 +4814,31 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="51" t="s">
+      <c r="V20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="51"/>
-      <c r="X20" s="49"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="36"/>
       <c r="Y20" s="16"/>
-      <c r="Z20" s="39" t="s">
+      <c r="Z20" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="42"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="43"/>
+      <c r="AJ20" s="50"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="31"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="44"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -4810,8 +4847,8 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="34"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="47"/>
       <c r="BA20" s="3"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.4">
@@ -4834,7 +4871,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="52"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4845,7 +4882,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="49"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -4857,13 +4894,13 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="43"/>
+      <c r="AJ21" s="50"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="31"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="44"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -4872,8 +4909,8 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="34"/>
+      <c r="AY21" s="56"/>
+      <c r="AZ21" s="47"/>
       <c r="BA21" s="3"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.4">
@@ -4896,7 +4933,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="52"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4907,7 +4944,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="49"/>
+      <c r="X22" s="36"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -4919,13 +4956,13 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="43"/>
+      <c r="AJ22" s="50"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="31"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="44"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -4934,8 +4971,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="34"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="47"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.4">
@@ -4958,7 +4995,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="52"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4969,7 +5006,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="49"/>
+      <c r="X23" s="36"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -4981,13 +5018,13 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="43"/>
+      <c r="AJ23" s="50"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="31"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="44"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -4996,8 +5033,8 @@
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="34"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="47"/>
       <c r="BA23" s="3"/>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.4">
@@ -5020,7 +5057,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="52"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -5031,7 +5068,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="49"/>
+      <c r="X24" s="36"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -5043,13 +5080,13 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="43"/>
+      <c r="AJ24" s="50"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="31"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="44"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -5058,8 +5095,8 @@
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="34"/>
+      <c r="AY24" s="56"/>
+      <c r="AZ24" s="47"/>
       <c r="BA24" s="3"/>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.4">
@@ -5082,7 +5119,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="52"/>
+      <c r="M25" s="39"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -5093,7 +5130,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="49"/>
+      <c r="X25" s="36"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -5105,13 +5142,13 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="43"/>
+      <c r="AJ25" s="50"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="31"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="44"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -5120,8 +5157,8 @@
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
-      <c r="AY25" s="55"/>
-      <c r="AZ25" s="34"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="47"/>
       <c r="BA25" s="3"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.4">
@@ -5146,7 +5183,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="52"/>
+      <c r="M26" s="39"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -5157,7 +5194,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="49"/>
+      <c r="X26" s="36"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -5169,13 +5206,13 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="43"/>
+      <c r="AJ26" s="50"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="31"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="44"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -5184,8 +5221,8 @@
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="34"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="47"/>
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.4">
@@ -5197,14 +5234,14 @@
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -5215,7 +5252,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="49"/>
+      <c r="X27" s="36"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -5227,13 +5264,13 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="44"/>
+      <c r="AJ27" s="51"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="32"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="45"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -5242,12 +5279,19 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="35"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="48"/>
       <c r="BA27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP5:AP27"/>
+    <mergeCell ref="AZ5:AZ27"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AJ5:AJ27"/>
+    <mergeCell ref="AO5:AO27"/>
+    <mergeCell ref="AY5:AY27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -5261,13 +5305,1130 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="R18:U18"/>
-    <mergeCell ref="AP5:AP27"/>
-    <mergeCell ref="AZ5:AZ27"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="AJ5:AJ27"/>
-    <mergeCell ref="AO5:AO27"/>
-    <mergeCell ref="AY5:AY27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53490FF-FD09-4338-B1FC-720A13750CB2}">
+  <dimension ref="B1:AE27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="38" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="17">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17">
+        <v>26</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17">
+        <v>30</v>
+      </c>
+      <c r="L3" s="17">
+        <v>2</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>9</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17">
+        <v>13</v>
+      </c>
+      <c r="V3" s="17">
+        <v>16</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45943</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45943</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45947</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>46002</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>46003</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+    </row>
+    <row r="15" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46003</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>46003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46007</v>
+      </c>
+      <c r="D18" s="2">
+        <v>46009</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D19" s="2">
+        <v>46010</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45971</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45975</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45978</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45981</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45978</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45981</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45982</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45982</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45989</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AB5:AC27"/>
+    <mergeCell ref="L2:AE2"/>
+    <mergeCell ref="F5:F27"/>
+    <mergeCell ref="K5:K27"/>
+    <mergeCell ref="L5:L27"/>
+    <mergeCell ref="U5:U27"/>
+    <mergeCell ref="V5:V27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
